--- a/fuentes/contenidos/grado10/guion09/SolicitudGrafica_CS_09_10_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion09/SolicitudGrafica_CS_09_10_CO.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zambanitos\Documents\GitHub\CienciasSociales\fuentes\contenidos\grado10\guion09\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="0" windowWidth="36940" windowHeight="23040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -725,7 +720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -886,12 +881,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1144,11 +1133,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1157,7 +1146,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1165,17 +1154,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1185,7 +1174,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1193,12 +1182,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,18 +1196,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,11 +1237,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1262,10 +1251,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1275,7 +1264,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1349,16 +1338,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,28 +1355,28 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1440,8 +1429,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1643,9 +1636,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1735,7 +1725,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="56">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1787,6 +1777,10 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1851,7 +1845,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1873,15 +1867,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1894,7 +1888,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1902,20 +1896,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1928,15 +1908,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1949,7 +1929,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1957,20 +1937,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1983,15 +1949,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2004,7 +1970,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2012,20 +1978,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2040,13 +1992,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2059,7 +2011,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2067,20 +2019,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2093,15 +2031,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>825500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2114,7 +2052,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2122,20 +2060,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2148,15 +2072,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2169,7 +2093,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2177,20 +2101,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2203,15 +2113,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2224,7 +2134,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2232,20 +2142,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2578,33 +2474,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.88671875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="16" customWidth="1"/>
     <col min="11" max="11" width="29.6640625" style="16" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.88671875" style="2"/>
+    <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2616,49 +2512,49 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="F2" s="81" t="s">
+      <c r="D2" s="88"/>
+      <c r="F2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="82"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="89">
         <v>10</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="F3" s="83">
+      <c r="D3" s="90"/>
+      <c r="F3" s="82">
         <v>42128</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="46" t="s">
         <v>55</v>
@@ -2671,15 +2567,15 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="94"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="5"/>
       <c r="F5" s="44" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2691,7 +2587,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2722,18 +2618,18 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="17"/>
       <c r="K8" s="11"/>
       <c r="L8" s="2"/>
@@ -2742,7 +2638,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1">
+    <row r="9" spans="1:16" ht="27" thickBot="1">
       <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
@@ -2777,7 +2673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="15">
+    <row r="10" spans="1:16" s="11" customFormat="1">
       <c r="A10" s="72" t="s">
         <v>149</v>
       </c>
@@ -2815,7 +2711,7 @@
       </c>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="13.9" customHeight="1">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>151</v>
       </c>
@@ -2853,7 +2749,7 @@
       </c>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="15.75">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="15">
       <c r="A12" s="72" t="s">
         <v>155</v>
       </c>
@@ -2891,7 +2787,7 @@
       </c>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="15">
+    <row r="13" spans="1:16" s="11" customFormat="1">
       <c r="A13" s="72" t="s">
         <v>158</v>
       </c>
@@ -2929,7 +2825,7 @@
       </c>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="297">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="300">
       <c r="A14" s="72" t="s">
         <v>161</v>
       </c>
@@ -2967,7 +2863,7 @@
       </c>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="15.75">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="15">
       <c r="A15" s="72" t="s">
         <v>164</v>
       </c>
@@ -3005,7 +2901,7 @@
       </c>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="15.75">
+    <row r="16" spans="1:16" s="11" customFormat="1">
       <c r="A16" s="72" t="s">
         <v>167</v>
       </c>
@@ -3043,7 +2939,7 @@
       </c>
       <c r="K16" s="28"/>
     </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="17" spans="1:11" s="11" customFormat="1">
       <c r="A17" s="72" t="s">
         <v>169</v>
       </c>
@@ -3081,7 +2977,7 @@
       </c>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="121.5">
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="117">
       <c r="A18" s="72" t="s">
         <v>171</v>
       </c>
@@ -3114,12 +3010,12 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="20" t="s">
         <v>173</v>
       </c>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="15.75">
+    <row r="19" spans="1:11" s="11" customFormat="1">
       <c r="A19" s="72" t="s">
         <v>174</v>
       </c>
@@ -3157,7 +3053,7 @@
       </c>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="20" spans="1:11" s="11" customFormat="1">
       <c r="A20" s="72" t="s">
         <v>176</v>
       </c>
@@ -3195,7 +3091,7 @@
       </c>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="21" spans="1:11" s="11" customFormat="1">
       <c r="A21" s="72" t="s">
         <v>179</v>
       </c>
@@ -3233,7 +3129,7 @@
       </c>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="22" spans="1:11" s="11" customFormat="1">
       <c r="A22" s="72" t="s">
         <v>98</v>
       </c>
@@ -3271,7 +3167,7 @@
       </c>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="15.75">
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A23" s="72" t="s">
         <v>183</v>
       </c>
@@ -3309,7 +3205,7 @@
       </c>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="24" spans="1:11" s="11" customFormat="1">
       <c r="A24" s="72" t="s">
         <v>186</v>
       </c>
@@ -3347,7 +3243,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="25" spans="1:11" s="11" customFormat="1">
       <c r="A25" s="72" t="s">
         <v>188</v>
       </c>
@@ -3385,7 +3281,7 @@
       </c>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" ht="189">
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="221">
       <c r="A26" s="72" t="s">
         <v>190</v>
       </c>
@@ -3423,7 +3319,7 @@
       </c>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="27" spans="1:11" s="11" customFormat="1">
       <c r="A27" s="72" t="s">
         <v>193</v>
       </c>
@@ -3461,7 +3357,7 @@
       </c>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="28" spans="1:11" s="11" customFormat="1">
       <c r="A28" s="72" t="s">
         <v>195</v>
       </c>
@@ -3499,7 +3395,7 @@
       </c>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="29" spans="1:11" s="11" customFormat="1">
       <c r="A29" s="72" t="s">
         <v>197</v>
       </c>
@@ -3537,7 +3433,7 @@
       </c>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" ht="15.75">
+    <row r="30" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A30" s="72" t="s">
         <v>199</v>
       </c>
@@ -3575,11 +3471,11 @@
       </c>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" s="11" customFormat="1" ht="162">
+    <row r="31" spans="1:11" s="11" customFormat="1" ht="195">
       <c r="A31" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="79" t="s">
         <v>204</v>
       </c>
       <c r="C31" s="26" t="str">
@@ -3608,7 +3504,7 @@
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J31" s="77" t="s">
+      <c r="J31" s="18" t="s">
         <v>205</v>
       </c>
       <c r="K31" s="18"/>
@@ -6054,7 +5950,7 @@
     <hyperlink ref="B31" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6065,44 +5961,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.21875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="72.1640625" style="29" customWidth="1"/>
     <col min="2" max="2" width="11" style="29"/>
-    <col min="3" max="3" width="13.77734375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="29" customWidth="1"/>
     <col min="5" max="7" width="11" style="29"/>
     <col min="8" max="11" width="11" style="29" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="11" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
+      <c r="A1" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="38"/>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -6110,11 +6006,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="38"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="39"/>
       <c r="H3" s="29" t="s">
         <v>18</v>
@@ -6157,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="75.75" thickBot="1">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>45</v>
       </c>
@@ -6165,11 +6061,11 @@
       <c r="C5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="109" t="str">
+      <c r="D5" s="108" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="39"/>
       <c r="H5" s="29" t="s">
         <v>22</v>
@@ -6184,7 +6080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30.75" thickBot="1">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="37" t="s">
         <v>10</v>
       </c>
@@ -6206,7 +6102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
@@ -6214,12 +6110,12 @@
       <c r="C7" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="95" t="str">
+      <c r="D7" s="94" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
       <c r="H7" s="29" t="s">
         <v>24</v>
       </c>
@@ -6271,7 +6167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30.75" thickBot="1">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="41" t="s">
         <v>36</v>
       </c>
@@ -6301,7 +6197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="29" t="s">
         <v>37</v>
       </c>
@@ -6312,15 +6208,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="97" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="I13" s="29" t="s">
         <v>33</v>
       </c>
@@ -6331,7 +6227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="40"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -6348,17 +6244,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11">
       <c r="A15" s="37" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="38"/>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
       <c r="J15" s="29">
         <v>12</v>
       </c>
@@ -6366,7 +6262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="40" t="s">
         <v>47</v>
       </c>
@@ -6390,7 +6286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="37" t="s">
         <v>44</v>
       </c>
@@ -6398,12 +6294,12 @@
       <c r="C17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="103" t="str">
+      <c r="D17" s="102" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
       <c r="J17" s="29">
         <v>14</v>
       </c>
@@ -6411,7 +6307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="75.75" thickBot="1">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="40" t="s">
         <v>48</v>
       </c>
@@ -6419,12 +6315,12 @@
       <c r="C18" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="95" t="str">
+      <c r="D18" s="94" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
       <c r="J18" s="29">
         <v>15</v>
       </c>
@@ -6432,7 +6328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11">
       <c r="A19" s="37" t="s">
         <v>10</v>
       </c>
@@ -6451,7 +6347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="60.75" thickBot="1">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="41" t="s">
         <v>51</v>
       </c>
@@ -6624,169 +6520,182 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>825500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6799,58 +6708,58 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="29" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="29"/>
+    <col min="4" max="4" width="10.83203125" style="29"/>
     <col min="5" max="5" width="11.6640625" style="29" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="29" customWidth="1"/>
     <col min="7" max="7" width="11" style="29" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="29" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="44.44140625" style="29" customWidth="1"/>
-    <col min="12" max="16384" width="10.77734375" style="29"/>
+    <col min="11" max="11" width="44.5" style="29" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="48" t="s">
         <v>65</v>
       </c>
@@ -6973,7 +6882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="50" customFormat="1">
+    <row r="7" spans="1:11" s="50" customFormat="1" ht="28">
       <c r="A7" s="51" t="s">
         <v>80</v>
       </c>
@@ -7001,7 +6910,7 @@
       </c>
       <c r="J7" s="51"/>
     </row>
-    <row r="8" spans="1:11" s="50" customFormat="1">
+    <row r="8" spans="1:11" s="50" customFormat="1" ht="28">
       <c r="A8" s="51" t="s">
         <v>82</v>
       </c>
@@ -7083,7 +6992,7 @@
       </c>
       <c r="J10" s="51"/>
     </row>
-    <row r="11" spans="1:11" s="50" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="50" customFormat="1" ht="28">
       <c r="A11" s="51" t="s">
         <v>89</v>
       </c>
@@ -7139,7 +7048,7 @@
       </c>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:11" ht="61.5">
+    <row r="13" spans="1:11" ht="60">
       <c r="A13" s="54" t="s">
         <v>93</v>
       </c>
@@ -7190,7 +7099,7 @@
       </c>
       <c r="J14" s="54"/>
     </row>
-    <row r="15" spans="1:11" ht="25.5">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="54" t="s">
         <v>99</v>
       </c>
@@ -7217,7 +7126,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="75">
+    <row r="16" spans="1:11" ht="90">
       <c r="A16" s="56" t="s">
         <v>103</v>
       </c>
@@ -7246,7 +7155,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="28">
       <c r="A17" s="51" t="s">
         <v>106</v>
       </c>
@@ -7275,7 +7184,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11">
       <c r="A20" s="60" t="s">
         <v>112</v>
       </c>
@@ -7371,5 +7280,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>